--- a/src/Tests/bin/Debug/net6.0/Templates/Orders.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Orders.xlsx
@@ -312,6 +312,9 @@
   </x:si>
   <x:si>
     <x:t>372</x:t>
+  </x:si>
+  <x:si>
+    <x:t>104</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -981,7 +984,7 @@
     </x:row>
     <x:row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <x:c r="A2" s="24" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B2" s="2">
         <x:v>44239</x:v>

--- a/src/Tests/bin/Debug/net6.0/Templates/Orders.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Orders.xlsx
@@ -315,6 +315,12 @@
   </x:si>
   <x:si>
     <x:t>104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>284</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02.08.2023</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -984,7 +990,7 @@
     </x:row>
     <x:row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <x:c r="A2" s="24" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B2" s="2">
         <x:v>44239</x:v>
@@ -1029,7 +1035,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="P2" t="s">
-        <x:v>34</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="Q2" t="s">
         <x:v>31</x:v>

--- a/src/Tests/bin/Debug/net6.0/Templates/Orders.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Orders.xlsx
@@ -321,6 +321,12 @@
   </x:si>
   <x:si>
     <x:t>02.08.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>257</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03.08.2023</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -990,7 +996,7 @@
     </x:row>
     <x:row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <x:c r="A2" s="24" t="s">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B2" s="2">
         <x:v>44239</x:v>
@@ -1035,7 +1041,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="P2" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="Q2" t="s">
         <x:v>31</x:v>

--- a/src/Tests/bin/Debug/net6.0/Templates/Orders.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Orders.xlsx
@@ -314,19 +314,10 @@
     <x:t>372</x:t>
   </x:si>
   <x:si>
-    <x:t>104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>284</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02.08.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>257</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03.08.2023</x:t>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -996,7 +987,7 @@
     </x:row>
     <x:row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <x:c r="A2" s="24" t="s">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B2" s="2">
         <x:v>44239</x:v>
@@ -1041,7 +1032,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="P2" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="Q2" t="s">
         <x:v>31</x:v>
